--- a/RNN_python/schd_sam_output_data/anom_data3.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data3.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>15.21463320409607</v>
+        <v>14.25522908212244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>15.23098700910377</v>
+        <v>9.948832595884696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1867008189286</v>
+        <v>13.85300150606079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>23.86880948721382</v>
+        <v>16.72128735720027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>34.69643354290137</v>
+        <v>16.93982225335694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>11.30412692570933</v>
+        <v>11.34103233227331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>18.2747924102972</v>
+        <v>10.81843999271999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>47.51449850559648</v>
+        <v>33.29443460045971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>443.4792415962265</v>
+        <v>420.4509073528445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>397.7500921022197</v>
+        <v>366.9923943334994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>430.1481479513853</v>
+        <v>418.1781706115171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>283.565319986613</v>
+        <v>268.1879026329127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>279.7771286576885</v>
+        <v>281.1028053291662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>240.0805694005666</v>
+        <v>239.968644392184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>191.2457629250396</v>
+        <v>184.9966997034534</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>153.6125679859714</v>
+        <v>141.8608538518542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>121.9020618203732</v>
+        <v>108.1008620748522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>90.96289319489964</v>
+        <v>80.72820976435435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>66.22367043716341</v>
+        <v>58.47107319612465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>46.1860057897931</v>
+        <v>40.80335351618368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>32.10422847864653</v>
+        <v>27.40747443578239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>23.43463797248582</v>
+        <v>17.96240325941746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>18.84187668187343</v>
+        <v>12.03129107757405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>25.59476230350174</v>
+        <v>4.362273037162254</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>381</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>283</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>297</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>151</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data3.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data3.xlsx
@@ -427,7 +427,7 @@
         <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>14.25522908212244</v>
+        <v>8.940698961014704</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>9.948832595884696</v>
+        <v>2.491191212789403</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>13.85300150606079</v>
+        <v>2.614918303324856</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>16.72128735720027</v>
+        <v>3.490432269808835</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>16.93982225335694</v>
+        <v>2.017250354815985</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>11.34103233227331</v>
+        <v>-1.039603959484168</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10.81843999271999</v>
+        <v>24.15956468162739</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>33.29443460045971</v>
+        <v>133.9297072407492</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>420.4509073528445</v>
+        <v>371.8935872918655</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>366.9923943334994</v>
+        <v>375.77857212195</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>418.1781706115171</v>
+        <v>366.3579371277743</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>268.1879026329127</v>
+        <v>284.6156926330728</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>281.1028053291662</v>
+        <v>264.9476992341719</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>239.968644392184</v>
+        <v>223.2132852018539</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>184.9966997034534</v>
+        <v>177.9041366820505</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>141.8608538518542</v>
+        <v>136.9143860554296</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>108.1008620748522</v>
+        <v>103.7806195094865</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>80.72820976435435</v>
+        <v>77.49729571441696</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>58.47107319612465</v>
+        <v>57.07209153973776</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>40.80335351618368</v>
+        <v>41.64094926892581</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27.40747443578239</v>
+        <v>30.36249359913138</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>17.96240325941746</v>
+        <v>22.44050748853067</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12.03129107757405</v>
+        <v>17.14611042546365</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4.362273037162254</v>
+        <v>0.6905628202924703</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data3.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data3.xlsx
@@ -427,7 +427,7 @@
         <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>8.940698961014704</v>
+        <v>12.33754098726689</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>2.491191212789403</v>
+        <v>10.27492923406464</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2.614918303324856</v>
+        <v>13.89416751502499</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3.490432269808835</v>
+        <v>17.7376836449029</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2.017250354815985</v>
+        <v>18.41936886528423</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.039603959484168</v>
+        <v>13.86574726161847</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>24.15956468162739</v>
+        <v>8.304867373432316</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>133.9297072407492</v>
+        <v>30.33341069732937</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>371.8935872918655</v>
+        <v>378.9930385842438</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>375.77857212195</v>
+        <v>367.965587581985</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>366.3579371277743</v>
+        <v>428.4484026571533</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>284.6156926330728</v>
+        <v>267.7762589049596</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>264.9476992341719</v>
+        <v>284.507067381279</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>223.2132852018539</v>
+        <v>241.5989394236628</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>177.9041366820505</v>
+        <v>183.7189499800634</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>136.9143860554296</v>
+        <v>141.5757391536397</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>103.7806195094865</v>
+        <v>107.0134437865887</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>77.49729571441696</v>
+        <v>78.15888060013515</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>57.07209153973776</v>
+        <v>54.71770997141076</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>41.64094926892581</v>
+        <v>36.53367265956264</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>30.36249359913138</v>
+        <v>23.35602578407563</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>22.44050748853067</v>
+        <v>14.71110663568551</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>17.14611042546365</v>
+        <v>9.851112409661084</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6905628202924703</v>
+        <v>11.24650267536131</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data3.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data3.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43110</v>
+        <v>43146</v>
       </c>
       <c r="D2" t="n">
-        <v>12.33754098726689</v>
+        <v>17.74343911854233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43110.04166666666</v>
+        <v>43146.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10.27492923406464</v>
+        <v>8.156471119418683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43110.08333333334</v>
+        <v>43146.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>13.89416751502499</v>
+        <v>19.07785774946389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43110.125</v>
+        <v>43146.125</v>
       </c>
       <c r="D5" t="n">
-        <v>17.7376836449029</v>
+        <v>28.23075229724613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43110.16666666666</v>
+        <v>43146.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>18.41936886528423</v>
+        <v>32.3396178487635</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43110.20833333334</v>
+        <v>43146.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>13.86574726161847</v>
+        <v>25.94365766840377</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43110.25</v>
+        <v>43146.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8.304867373432316</v>
+        <v>14.80846620611305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43110.29166666666</v>
+        <v>43146.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30.33341069732937</v>
+        <v>37.22999832240369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43110.33333333334</v>
+        <v>43146.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>378.9930385842438</v>
+        <v>455.2021049092277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43110.375</v>
+        <v>43146.375</v>
       </c>
       <c r="D11" t="n">
-        <v>367.965587581985</v>
+        <v>422.1446442269695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43110.41666666666</v>
+        <v>43146.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>428.4484026571533</v>
+        <v>415.5562528028828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43110.45833333334</v>
+        <v>43146.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>267.7762589049596</v>
+        <v>292.2963363618538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43110.5</v>
+        <v>43146.5</v>
       </c>
       <c r="D14" t="n">
-        <v>284.507067381279</v>
+        <v>271.5102112657681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43110.54166666666</v>
+        <v>43146.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>241.5989394236628</v>
+        <v>234.3455397614262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43110.58333333334</v>
+        <v>43146.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>183.7189499800634</v>
+        <v>203.8278474451827</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43110.625</v>
+        <v>43146.625</v>
       </c>
       <c r="D17" t="n">
-        <v>141.5757391536397</v>
+        <v>171.8889967876768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43110.66666666666</v>
+        <v>43146.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>107.0134437865887</v>
+        <v>136.5432004295009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43110.70833333334</v>
+        <v>43146.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>78.15888060013515</v>
+        <v>99.99616961385979</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43110.75</v>
+        <v>43146.75</v>
       </c>
       <c r="D20" t="n">
-        <v>54.71770997141076</v>
+        <v>67.76652611352918</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43110.79166666666</v>
+        <v>43146.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>36.53367265956264</v>
+        <v>43.36735531845356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43110.83333333334</v>
+        <v>43146.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>23.35602578407563</v>
+        <v>27.02685045040737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43110.875</v>
+        <v>43146.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14.71110663568551</v>
+        <v>17.39305016095713</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43110.91666666666</v>
+        <v>43146.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9.851112409661084</v>
+        <v>12.81986063563861</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43110.95833333334</v>
+        <v>43146.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>11.24650267536131</v>
+        <v>13.7383561286946</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43110</v>
+        <v>43146</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43110.04166666666</v>
+        <v>43146.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43110.08333333334</v>
+        <v>43146.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43110.125</v>
+        <v>43146.125</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43110.16666666666</v>
+        <v>43146.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43110.20833333334</v>
+        <v>43146.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43110.25</v>
+        <v>43146.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43110.29166666666</v>
+        <v>43146.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43110.33333333334</v>
+        <v>43146.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43110.375</v>
+        <v>43146.375</v>
       </c>
       <c r="D11" t="n">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43110.41666666666</v>
+        <v>43146.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>597</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43110.45833333334</v>
+        <v>43146.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>401</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43110.5</v>
+        <v>43146.5</v>
       </c>
       <c r="D14" t="n">
-        <v>320</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43110.54166666666</v>
+        <v>43146.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43110.58333333334</v>
+        <v>43146.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43110.625</v>
+        <v>43146.625</v>
       </c>
       <c r="D17" t="n">
-        <v>192</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43110.66666666666</v>
+        <v>43146.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>140</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43110.70833333334</v>
+        <v>43146.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>93</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43110.75</v>
+        <v>43146.75</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43110.79166666666</v>
+        <v>43146.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43110.83333333334</v>
+        <v>43146.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43110.875</v>
+        <v>43146.875</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43110.91666666666</v>
+        <v>43146.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43110.95833333334</v>
+        <v>43146.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data3.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data3.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>17.74343911854233</v>
+        <v>21.4473202561076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>8.156471119418683</v>
+        <v>13.40566385589672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>19.07785774946389</v>
+        <v>9.706673781383159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>28.23075229724613</v>
+        <v>8.580434785876747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>32.3396178487635</v>
+        <v>11.51160792995317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>25.94365766840377</v>
+        <v>-22.52026741996249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14.80846620611305</v>
+        <v>-12.29040390607841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>37.22999832240369</v>
+        <v>24.99111551140173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>455.2021049092277</v>
+        <v>496.20194972842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>422.1446442269695</v>
+        <v>393.5583992732306</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>415.5562528028828</v>
+        <v>514.2825540257659</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>292.2963363618538</v>
+        <v>306.5720919888739</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>271.5102112657681</v>
+        <v>326.5944052357398</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>234.3455397614262</v>
+        <v>253.4878567845992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>203.8278474451827</v>
+        <v>193.5881958504893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>171.8889967876768</v>
+        <v>156.6965936940947</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>136.5432004295009</v>
+        <v>139.6589351942981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>99.99616961385979</v>
+        <v>118.3627892357653</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>67.76652611352918</v>
+        <v>85.34201946773047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>43.36735531845356</v>
+        <v>51.51685238668468</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02685045040737</v>
+        <v>29.6678936514863</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>17.39305016095713</v>
+        <v>19.69982772990605</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12.81986063563861</v>
+        <v>14.36752647827805</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>13.7383561286946</v>
+        <v>1.752355964192247</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43060</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43060.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43060.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43060.125</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43060.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43060.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43060.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43060.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43060.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>453</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43060.375</v>
       </c>
       <c r="D11" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43060.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>381</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43060.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43060.5</v>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43060.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43060.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43060.625</v>
       </c>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43060.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>297</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43060.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>151</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43060.75</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43060.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43060.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43060.875</v>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43060.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43060.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
